--- a/src/main/resources/Test data.xlsx
+++ b/src/main/resources/Test data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/praveensharma/IdeaProjects/SeleniumAutomationFramework/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2967F3-F6D8-C843-A755-0C9BCE48CD45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8D42F7-50F4-8F45-A215-D755819739D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="14700" xr2:uid="{4FC76D2B-00FF-4148-9A4C-59EDF7983361}"/>
   </bookViews>
   <sheets>
     <sheet name="TestDataSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="RunManager" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,17 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Rajat1</t>
-  </si>
-  <si>
-    <t>Password1</t>
-  </si>
-  <si>
     <t>Password2</t>
   </si>
   <si>
@@ -45,35 +40,50 @@
     <t>Username</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>validateTest</t>
+  </si>
+  <si>
+    <t>validateLogout</t>
+  </si>
+  <si>
+    <t>validateHomePageTitle</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,9 +106,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,54 +427,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEFAA6C-644B-A444-87D7-4BAE7B1B018B}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7792FFFC-CBC5-4E45-8809-0FA894B39A5E}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
+      <c r="B4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Test data.xlsx
+++ b/src/main/resources/Test data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/praveensharma/IdeaProjects/SeleniumAutomationFramework/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8D42F7-50F4-8F45-A215-D755819739D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3375D3-07B5-F049-9113-CFF3101DBD7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="14700" xr2:uid="{4FC76D2B-00FF-4148-9A4C-59EDF7983361}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="14700" activeTab="1" xr2:uid="{4FC76D2B-00FF-4148-9A4C-59EDF7983361}"/>
   </bookViews>
   <sheets>
     <sheet name="TestDataSheet" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Password</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>validateLoginPageTitle</t>
+  </si>
+  <si>
+    <t>validateLoginWithIncorrectCredentials</t>
   </si>
 </sst>
 </file>
@@ -112,7 +118,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEFAA6C-644B-A444-87D7-4BAE7B1B018B}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -468,10 +476,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7792FFFC-CBC5-4E45-8809-0FA894B39A5E}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -512,6 +520,22 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:2" ht="17">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/Test data.xlsx
+++ b/src/main/resources/Test data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/praveensharma/IdeaProjects/SeleniumAutomationFramework/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3375D3-07B5-F049-9113-CFF3101DBD7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C31B76-1339-B94B-BAB9-B685CBA16923}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="14700" activeTab="1" xr2:uid="{4FC76D2B-00FF-4148-9A4C-59EDF7983361}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Password</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>validateHomePageTitle</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>validateLoginPageTitle</t>
@@ -479,7 +476,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -501,7 +498,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -517,12 +514,12 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -530,10 +527,10 @@
     </row>
     <row r="6" spans="1:2" ht="29">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
